--- a/THYRISTOR POWER REGULATOR/Project Outputs/BOM/BOM.xlsx
+++ b/THYRISTOR POWER REGULATOR/Project Outputs/BOM/BOM.xlsx
@@ -36,7 +36,7 @@
     <t>ComponentLink1URL</t>
   </si>
   <si>
-    <t>C1, C2, F1, L, N, OUT1, OUT2, R1, R2, R3, R4, VD3, VT1</t>
+    <t>C1, C2, L, N, OUT1, OUT2, R1, R2, R3, R4, VD3, VT1</t>
   </si>
   <si>
     <t>D-00025</t>
@@ -366,7 +366,7 @@
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="19"/>
     </row>
